--- a/Doc/Web端网页整理.xlsx
+++ b/Doc/Web端网页整理.xlsx
@@ -16,32 +16,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
   <si>
     <t>页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>租户管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>品牌管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检查标准管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>复审人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>期号内容管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,6 +135,10 @@
   </si>
   <si>
     <t>体系管理(设置流程类型)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C/U</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -277,6 +257,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -288,20 +282,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,44 +577,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:S35"/>
+  <dimension ref="C3:R34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="13" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.25" hidden="1" customWidth="1"/>
-    <col min="15" max="19" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.25" hidden="1" customWidth="1"/>
+    <col min="14" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:19">
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="7"/>
-    </row>
-    <row r="4" spans="3:19" ht="24.75" customHeight="1">
+    <row r="3" spans="3:18">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+    </row>
+    <row r="4" spans="3:18" ht="24.75" customHeight="1">
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>0</v>
@@ -643,472 +620,390 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="3:18" s="6" customFormat="1">
+      <c r="C5" s="9"/>
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="E5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+    </row>
+    <row r="6" spans="3:18" s="6" customFormat="1">
+      <c r="C6" s="9"/>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" spans="3:18" s="6" customFormat="1">
+      <c r="C7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+    </row>
+    <row r="8" spans="3:18" s="6" customFormat="1">
+      <c r="C8" s="9"/>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="3:18" s="6" customFormat="1">
+      <c r="C9" s="9"/>
+      <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="E9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+    </row>
+    <row r="10" spans="3:18" s="6" customFormat="1">
+      <c r="C10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" spans="3:18" s="6" customFormat="1">
+      <c r="C11" s="9"/>
+      <c r="D11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+    </row>
+    <row r="12" spans="3:18" s="6" customFormat="1">
+      <c r="C12" s="9"/>
+      <c r="D12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="2" t="s">
+      <c r="E12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+    </row>
+    <row r="13" spans="3:18" s="6" customFormat="1">
+      <c r="C13" s="9"/>
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+    </row>
+    <row r="14" spans="3:18" s="6" customFormat="1">
+      <c r="C14" s="9"/>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+    </row>
+    <row r="15" spans="3:18" s="6" customFormat="1">
+      <c r="C15" s="9"/>
+      <c r="D15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="3:19" s="11" customFormat="1">
-      <c r="C5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-    </row>
-    <row r="6" spans="3:19" s="11" customFormat="1">
-      <c r="C6" s="9"/>
-      <c r="D6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-    </row>
-    <row r="7" spans="3:19" s="11" customFormat="1">
-      <c r="C7" s="9"/>
-      <c r="D7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-    </row>
-    <row r="8" spans="3:19" s="11" customFormat="1">
-      <c r="C8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="E15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+    </row>
+    <row r="16" spans="3:18" s="6" customFormat="1">
+      <c r="C16" s="9"/>
+      <c r="D16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-    </row>
-    <row r="9" spans="3:19" s="11" customFormat="1">
-      <c r="C9" s="9"/>
-      <c r="D9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-    </row>
-    <row r="10" spans="3:19" s="11" customFormat="1">
-      <c r="C10" s="9"/>
-      <c r="D10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-    </row>
-    <row r="11" spans="3:19" s="11" customFormat="1">
-      <c r="C11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-    </row>
-    <row r="12" spans="3:19" s="11" customFormat="1">
-      <c r="C12" s="9"/>
-      <c r="D12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-    </row>
-    <row r="13" spans="3:19" s="11" customFormat="1">
-      <c r="C13" s="9"/>
-      <c r="D13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-    </row>
-    <row r="14" spans="3:19" s="11" customFormat="1">
-      <c r="C14" s="9"/>
-      <c r="D14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-    </row>
-    <row r="15" spans="3:19" s="11" customFormat="1">
-      <c r="C15" s="9"/>
-      <c r="D15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-    </row>
-    <row r="16" spans="3:19" s="11" customFormat="1">
-      <c r="C16" s="9"/>
-      <c r="D16" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-    </row>
-    <row r="17" spans="3:19" s="11" customFormat="1">
-      <c r="C17" s="9"/>
-      <c r="D17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-    </row>
-    <row r="18" spans="3:19">
+      <c r="E16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+    </row>
+    <row r="17" spans="3:18">
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="3:18">
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
@@ -1125,9 +1020,8 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-    </row>
-    <row r="19" spans="3:19">
+    </row>
+    <row r="19" spans="3:18">
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
@@ -1144,9 +1038,8 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-    </row>
-    <row r="20" spans="3:19">
+    </row>
+    <row r="20" spans="3:18">
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
@@ -1163,9 +1056,8 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-    </row>
-    <row r="21" spans="3:19">
+    </row>
+    <row r="21" spans="3:18">
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
@@ -1182,9 +1074,8 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-    </row>
-    <row r="22" spans="3:19">
+    </row>
+    <row r="22" spans="3:18">
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
@@ -1201,9 +1092,8 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-    </row>
-    <row r="23" spans="3:19">
+    </row>
+    <row r="23" spans="3:18">
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
@@ -1220,9 +1110,8 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-    </row>
-    <row r="24" spans="3:19">
+    </row>
+    <row r="24" spans="3:18">
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
@@ -1239,9 +1128,8 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-    </row>
-    <row r="25" spans="3:19">
+    </row>
+    <row r="25" spans="3:18">
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
@@ -1258,9 +1146,8 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-    </row>
-    <row r="26" spans="3:19">
+    </row>
+    <row r="26" spans="3:18">
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
@@ -1277,9 +1164,8 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-    </row>
-    <row r="27" spans="3:19">
+    </row>
+    <row r="27" spans="3:18">
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
       <c r="E27" s="2"/>
@@ -1296,9 +1182,8 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-    </row>
-    <row r="28" spans="3:19">
+    </row>
+    <row r="28" spans="3:18">
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
@@ -1315,9 +1200,8 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-    </row>
-    <row r="29" spans="3:19">
+    </row>
+    <row r="29" spans="3:18">
       <c r="C29" s="2"/>
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
@@ -1334,9 +1218,8 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-    </row>
-    <row r="30" spans="3:19">
+    </row>
+    <row r="30" spans="3:18">
       <c r="C30" s="2"/>
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
@@ -1353,9 +1236,8 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-    </row>
-    <row r="31" spans="3:19">
+    </row>
+    <row r="31" spans="3:18">
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
@@ -1372,9 +1254,8 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-    </row>
-    <row r="32" spans="3:19">
+    </row>
+    <row r="32" spans="3:18">
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
@@ -1391,9 +1272,8 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-    </row>
-    <row r="33" spans="3:19">
+    </row>
+    <row r="33" spans="3:18">
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
@@ -1410,9 +1290,8 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-    </row>
-    <row r="34" spans="3:19">
+    </row>
+    <row r="34" spans="3:18">
       <c r="C34" s="2"/>
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
@@ -1429,34 +1308,14 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-    </row>
-    <row r="35" spans="3:19">
-      <c r="C35" s="2"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C17"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:S3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:R3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/Web端网页整理.xlsx
+++ b/Doc/Web端网页整理.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t>页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,23 @@
   </si>
   <si>
     <t>C/U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>、、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>c.bnghtyh=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +186,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -184,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -244,11 +268,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -256,6 +293,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,9 +311,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -283,13 +320,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="E1:G30" totalsRowShown="0" dataDxfId="0" tableBorderDxfId="4">
+  <autoFilter ref="E1:G30"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Column1" dataDxfId="3"/>
+    <tableColumn id="2" name="Column2" dataDxfId="2"/>
+    <tableColumn id="3" name="Column3" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -577,26 +699,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:R34"/>
+  <dimension ref="A1:BT72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AV26" workbookViewId="0">
+      <selection activeCell="BT72" sqref="BT72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
     <col min="6" max="6" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" customWidth="1"/>
     <col min="8" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.25" hidden="1" customWidth="1"/>
     <col min="14" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:18">
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+    <row r="1" spans="1:18">
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
@@ -611,20 +743,14 @@
       <c r="Q3" s="12"/>
       <c r="R3" s="13"/>
     </row>
-    <row r="4" spans="3:18" ht="24.75" customHeight="1">
+    <row r="4" spans="1:18" ht="24.75" customHeight="1">
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
@@ -659,338 +785,347 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="3:18" s="6" customFormat="1">
-      <c r="C5" s="9"/>
-      <c r="D5" s="5" t="s">
+    <row r="5" spans="1:18" s="7" customFormat="1">
+      <c r="C5" s="10"/>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-    </row>
-    <row r="6" spans="3:18" s="6" customFormat="1">
-      <c r="C6" s="9"/>
-      <c r="D6" s="5" t="s">
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" s="7" customFormat="1">
+      <c r="C6" s="10"/>
+      <c r="D6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-    </row>
-    <row r="7" spans="3:18" s="6" customFormat="1">
-      <c r="C7" s="9" t="s">
+      <c r="E6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+    </row>
+    <row r="7" spans="1:18" s="7" customFormat="1">
+      <c r="C7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-    </row>
-    <row r="8" spans="3:18" s="6" customFormat="1">
-      <c r="C8" s="9"/>
-      <c r="D8" s="5" t="s">
+      <c r="H7" s="9"/>
+      <c r="I7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+    </row>
+    <row r="8" spans="1:18" s="7" customFormat="1">
+      <c r="A8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-    </row>
-    <row r="9" spans="3:18" s="6" customFormat="1">
-      <c r="C9" s="9"/>
-      <c r="D9" s="5" t="s">
+      <c r="E8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+    </row>
+    <row r="9" spans="1:18" s="7" customFormat="1">
+      <c r="C9" s="10"/>
+      <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-    </row>
-    <row r="10" spans="3:18" s="6" customFormat="1">
-      <c r="C10" s="9" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+    </row>
+    <row r="10" spans="1:18" s="7" customFormat="1">
+      <c r="C10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-    </row>
-    <row r="11" spans="3:18" s="6" customFormat="1">
-      <c r="C11" s="9"/>
-      <c r="D11" s="5" t="s">
+      <c r="E10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+    </row>
+    <row r="11" spans="1:18" s="7" customFormat="1">
+      <c r="C11" s="10"/>
+      <c r="D11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-    </row>
-    <row r="12" spans="3:18" s="6" customFormat="1">
-      <c r="C12" s="9"/>
-      <c r="D12" s="5" t="s">
+      <c r="E11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+    </row>
+    <row r="12" spans="1:18" s="7" customFormat="1">
+      <c r="C12" s="10"/>
+      <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="3:18" s="6" customFormat="1">
-      <c r="C13" s="9"/>
-      <c r="D13" s="5" t="s">
+      <c r="E12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+    </row>
+    <row r="13" spans="1:18" s="7" customFormat="1">
+      <c r="C13" s="10"/>
+      <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-    </row>
-    <row r="14" spans="3:18" s="6" customFormat="1">
-      <c r="C14" s="9"/>
-      <c r="D14" s="5" t="s">
+      <c r="E13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+    </row>
+    <row r="14" spans="1:18" s="7" customFormat="1">
+      <c r="C14" s="10"/>
+      <c r="D14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-    </row>
-    <row r="15" spans="3:18" s="6" customFormat="1">
-      <c r="C15" s="9"/>
-      <c r="D15" s="5" t="s">
+      <c r="E14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+    </row>
+    <row r="15" spans="1:18" s="7" customFormat="1">
+      <c r="C15" s="10"/>
+      <c r="D15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-    </row>
-    <row r="16" spans="3:18" s="6" customFormat="1">
-      <c r="C16" s="9"/>
-      <c r="D16" s="5" t="s">
+      <c r="E15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+    </row>
+    <row r="16" spans="1:18" s="7" customFormat="1">
+      <c r="C16" s="10"/>
+      <c r="D16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
+      <c r="E16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
     </row>
     <row r="17" spans="3:18">
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="E17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="9"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1222,9 +1357,9 @@
     <row r="30" spans="3:18">
       <c r="C30" s="2"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -1255,9 +1390,9 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
-    <row r="32" spans="3:18">
+    <row r="32" spans="3:18" ht="14.25">
       <c r="C32" s="2"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1309,17 +1444,24 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
     </row>
+    <row r="72" spans="72:72" ht="14.25">
+      <c r="BT72" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="C10:C16"/>
-    <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:R3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Doc/Web端网页整理.xlsx
+++ b/Doc/Web端网页整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="1590" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="615" yWindow="1590" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="第一阶段" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
   <si>
     <t>页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,38 @@
   </si>
   <si>
     <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审完毕时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审操作人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,10 +278,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -548,7 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:BT55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -611,14 +643,14 @@
       </c>
     </row>
     <row r="3" spans="3:18" s="6" customFormat="1">
-      <c r="C3" s="10"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="11"/>
+      <c r="E3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="10"/>
       <c r="G3" s="5"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7" t="s">
@@ -635,14 +667,14 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="3:18" s="6" customFormat="1">
-      <c r="C4" s="10"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="11"/>
+      <c r="E4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="10"/>
       <c r="G4" s="5"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
@@ -661,16 +693,16 @@
       <c r="R4" s="7"/>
     </row>
     <row r="5" spans="3:18" s="6" customFormat="1">
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="11"/>
+      <c r="E5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="10"/>
       <c r="G5" s="5"/>
       <c r="H5" s="8"/>
       <c r="I5" s="7" t="s">
@@ -689,12 +721,12 @@
       <c r="R5" s="7"/>
     </row>
     <row r="6" spans="3:18" s="6" customFormat="1">
-      <c r="C6" s="10"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="5"/>
       <c r="H6" s="8"/>
       <c r="I6" s="7" t="s">
@@ -713,14 +745,14 @@
       <c r="R6" s="7"/>
     </row>
     <row r="7" spans="3:18" s="6" customFormat="1">
-      <c r="C7" s="10"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="E7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="5"/>
@@ -741,16 +773,16 @@
       <c r="R7" s="7"/>
     </row>
     <row r="8" spans="3:18" s="6" customFormat="1">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="E8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="5"/>
@@ -771,14 +803,14 @@
       <c r="R8" s="7"/>
     </row>
     <row r="9" spans="3:18" s="6" customFormat="1">
-      <c r="C9" s="10"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="11" t="s">
+      <c r="E9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="5"/>
@@ -799,14 +831,14 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="3:18" s="6" customFormat="1">
-      <c r="C10" s="10"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="E10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="5"/>
@@ -827,14 +859,14 @@
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="3:18" s="6" customFormat="1">
-      <c r="C11" s="10"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="E11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="5"/>
@@ -855,14 +887,14 @@
       <c r="R11" s="7"/>
     </row>
     <row r="12" spans="3:18" s="6" customFormat="1">
-      <c r="C12" s="10"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="11" t="s">
+      <c r="E12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="5"/>
@@ -883,14 +915,14 @@
       <c r="R12" s="7"/>
     </row>
     <row r="13" spans="3:18" s="6" customFormat="1">
-      <c r="C13" s="10"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="5"/>
@@ -911,14 +943,14 @@
       <c r="R13" s="7"/>
     </row>
     <row r="14" spans="3:18" s="6" customFormat="1">
-      <c r="C14" s="10"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="11" t="s">
+      <c r="E14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="5"/>
@@ -1022,12 +1054,94 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="D7:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:9">
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9">
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="4:9">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="4:9">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="4:9">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="4:9">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Doc/Web端网页整理.xlsx
+++ b/Doc/Web端网页整理.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="1590" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="615" yWindow="1590" windowWidth="14745" windowHeight="5685" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="第一阶段" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="调研账号管理" sheetId="2" r:id="rId2"/>
+    <sheet name="厂商账号管理" sheetId="4" r:id="rId3"/>
+    <sheet name="区域管理" sheetId="5" r:id="rId4"/>
+    <sheet name="集团管理" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="151">
   <si>
     <t>页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,14 +174,453 @@
   </si>
   <si>
     <t>详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>权限类型</t>
+  </si>
+  <si>
+    <t>使用与否</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>添加时间</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置所属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后修改时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置所属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据不同的权限类型，点击设置所属弹出的界面不同。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务类型/广域经理/大区经理/中区经理/小区经理/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击跳转到新增和修改页面)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击账号跳转到编辑页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击跳转到账号详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加业务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用与否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加业务类型跳转到区域详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击区域代码跳转到区域详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下级区域添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下级区域添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用与否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击集团代码跳转到集团详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加集团跳转到集团详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,8 +657,68 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF73879C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF73879C"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF73879C"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +728,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,10 +780,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -281,20 +808,53 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -336,7 +896,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -368,9 +928,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -402,6 +963,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -577,14 +1139,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:BT55"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.25" bestFit="1" customWidth="1"/>
@@ -594,7 +1156,7 @@
     <col min="14" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:18" ht="24.75" customHeight="1">
+    <row r="2" spans="3:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -642,8 +1204,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="3:18" s="6" customFormat="1">
-      <c r="C3" s="11"/>
+    <row r="3" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C3" s="23"/>
       <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
@@ -666,8 +1228,8 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="3:18" s="6" customFormat="1">
-      <c r="C4" s="11"/>
+    <row r="4" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="23"/>
       <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
@@ -692,8 +1254,8 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" spans="3:18" s="6" customFormat="1">
-      <c r="C5" s="11" t="s">
+    <row r="5" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="23" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -720,8 +1282,8 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
     </row>
-    <row r="6" spans="3:18" s="6" customFormat="1">
-      <c r="C6" s="11"/>
+    <row r="6" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="23"/>
       <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
@@ -744,8 +1306,8 @@
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
     </row>
-    <row r="7" spans="3:18" s="6" customFormat="1">
-      <c r="C7" s="11"/>
+    <row r="7" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="23"/>
       <c r="D7" s="5" t="s">
         <v>2</v>
       </c>
@@ -772,8 +1334,8 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
     </row>
-    <row r="8" spans="3:18" s="6" customFormat="1">
-      <c r="C8" s="11" t="s">
+    <row r="8" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -802,8 +1364,8 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
     </row>
-    <row r="9" spans="3:18" s="6" customFormat="1">
-      <c r="C9" s="11"/>
+    <row r="9" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="23"/>
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
@@ -830,8 +1392,8 @@
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
     </row>
-    <row r="10" spans="3:18" s="6" customFormat="1">
-      <c r="C10" s="11"/>
+    <row r="10" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="23"/>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
@@ -858,8 +1420,8 @@
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
     </row>
-    <row r="11" spans="3:18" s="6" customFormat="1">
-      <c r="C11" s="11"/>
+    <row r="11" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="23"/>
       <c r="D11" s="5" t="s">
         <v>8</v>
       </c>
@@ -886,8 +1448,8 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
     </row>
-    <row r="12" spans="3:18" s="6" customFormat="1">
-      <c r="C12" s="11"/>
+    <row r="12" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="23"/>
       <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
@@ -914,8 +1476,8 @@
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" spans="3:18" s="6" customFormat="1">
-      <c r="C13" s="11"/>
+    <row r="13" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="23"/>
       <c r="D13" s="5" t="s">
         <v>21</v>
       </c>
@@ -942,8 +1504,8 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
     </row>
-    <row r="14" spans="3:18" s="6" customFormat="1">
-      <c r="C14" s="11"/>
+    <row r="14" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="23"/>
       <c r="D14" s="5" t="s">
         <v>25</v>
       </c>
@@ -970,7 +1532,7 @@
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
     </row>
-    <row r="15" spans="3:18">
+    <row r="15" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
@@ -988,7 +1550,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="3:18">
+    <row r="16" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
@@ -1006,7 +1568,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="3:18">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1024,7 +1586,7 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="55" spans="72:72" ht="14.25">
+    <row r="55" spans="72:72" ht="14.25" x14ac:dyDescent="0.15">
       <c r="BT55" s="9"/>
     </row>
   </sheetData>
@@ -1040,34 +1602,1372 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1111</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1234555</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B29" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B31" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B32" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B33" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B34" s="12"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F11" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:O86"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B11" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1111</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1234555</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B35" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B36" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C50" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C63" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C69" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C78" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D78" t="s">
+        <v>62</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C82" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C84" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F11" r:id="rId1" display="111@qq.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:M56"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A27" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J3" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="I6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" t="s">
+        <v>126</v>
+      </c>
+      <c r="M6" s="20"/>
+    </row>
+    <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B11" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1111</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="16"/>
+      <c r="B31" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B32" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D37" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B38" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B39" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B40" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B41" s="12"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B44" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B51" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B54" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:I27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F3" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1111</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
@@ -1087,7 +2987,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="4:9">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D8" s="1" t="s">
         <v>35</v>
       </c>
@@ -1099,7 +2999,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="4:9">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1109,7 +3009,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="4:9">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1117,7 +3017,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="4:9">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1125,7 +3025,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="4:9">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1133,7 +3033,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="4:9">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>

--- a/Doc/Web端网页整理.xlsx
+++ b/Doc/Web端网页整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="1590" windowWidth="14745" windowHeight="5685" activeTab="4"/>
+    <workbookView xWindow="615" yWindow="1590" windowWidth="14745" windowHeight="5685" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="第一阶段" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,16 @@
     <sheet name="厂商账号管理" sheetId="4" r:id="rId3"/>
     <sheet name="区域管理" sheetId="5" r:id="rId4"/>
     <sheet name="集团管理" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="经销商管理" sheetId="7" r:id="rId6"/>
+    <sheet name="品牌管理" sheetId="8" r:id="rId7"/>
+    <sheet name="期号管理" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="186">
   <si>
     <t>页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,39 +147,502 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>权限类型</t>
+  </si>
+  <si>
+    <t>使用与否</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>添加时间</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置所属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后修改时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置所属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据不同的权限类型，点击设置所属弹出的界面不同。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务类型/广域经理/大区经理/中区经理/小区经理/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>经销商代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>经销商代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>经销商名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复审完毕时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复审操作人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复审状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限</t>
+    <t>关联品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击跳转到新增和修改页面)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击账号跳转到编辑页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击跳转到账号详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加业务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用与否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加业务类型跳转到区域详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击区域代码跳转到区域详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下级区域添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下级区域添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用与否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击集团代码跳转到集团详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加集团跳转到集团详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加经销商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加经销商跳转到经销商详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商简称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商简称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -185,34 +650,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>账号</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>权限类型</t>
-  </si>
-  <si>
-    <t>使用与否</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>电话</t>
-  </si>
-  <si>
-    <t>添加时间</t>
-  </si>
-  <si>
-    <t>修改时间</t>
-  </si>
-  <si>
-    <t>账号</t>
+    <t>品牌代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加品牌跳转到品牌详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击经销商代码跳转到经销商详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击品牌代码跳转到品牌详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期号代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期号名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加期号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加期号跳转到期号详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期号详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期号代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期号名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -220,399 +750,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否可用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勾选框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置所属</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后修改时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置所属</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据不同的权限类型，点击设置所属弹出的界面不同。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务类型/广域经理/大区经理/中区经理/小区经理/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经销商总经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经销商代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经销商代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经销商名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联品牌</t>
+    <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击跳转到新增和修改页面)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dddd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击账号跳转到编辑页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击跳转到账号详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加业务类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集团代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集团代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集团名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不需要设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用与否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击添加业务类型跳转到区域详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击区域代码跳转到区域详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勾选框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经销商设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经销商设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下级区域添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经销商设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经销商代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经销商代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经销商名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下级区域添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集团代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集团名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用与否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击集团代码跳转到集团详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集团详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集团代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加集团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击添加集团跳转到集团详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1620,85 +1762,85 @@
   <sheetData>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="M6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="K10" s="17" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1">
         <v>1111</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G11" s="1">
         <v>1234555</v>
@@ -1818,91 +1960,91 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="15" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B29" s="12" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B30" s="12" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B31" s="12" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B32" s="12" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B33" s="12" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -1910,27 +2052,27 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C39" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -1971,94 +2113,94 @@
   <sheetData>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="O6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="K10" s="17" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B11" s="19" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1">
         <v>1111</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G11" s="1">
         <v>1234555</v>
@@ -2082,7 +2224,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2180,101 +2322,101 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="15" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B33" s="12" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B34" s="12" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B35" s="12" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B36" s="12" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B37" s="12" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -2282,39 +2424,39 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C50" s="12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D50" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C54" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C56" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -2329,31 +2471,31 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C63" s="12" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D63" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C67" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C69" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
@@ -2371,26 +2513,26 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C78" s="12" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D78" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C82" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C84" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.15">
@@ -2432,89 +2574,89 @@
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="J3" s="11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B6" s="12" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="I6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="M6" s="20"/>
     </row>
     <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B10" s="21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B11" s="19" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1">
         <v>1111</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="24" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -2533,7 +2675,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2623,83 +2765,83 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="15" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="16"/>
       <c r="B31" s="12" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B32" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" t="s">
         <v>123</v>
-      </c>
-      <c r="C32" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D37" s="22" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B38" s="12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B39" s="12" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B40" s="12" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
@@ -2707,13 +2849,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B44" s="25" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
@@ -2728,29 +2870,29 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B51" s="12" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C51" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B54" s="25" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
@@ -2774,8 +2916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2789,23 +2931,23 @@
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F3" s="11" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="12" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
@@ -2814,30 +2956,30 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B10" s="21" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B11" s="19" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1">
         <v>1111</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -2851,7 +2993,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2909,40 +3051,40 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="15" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B27" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" t="s">
         <v>123</v>
-      </c>
-      <c r="C27" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2954,95 +3096,681 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:I13"/>
+  <dimension ref="A3:J31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F3" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D6" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1111</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B28" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B29" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B31" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:G26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F3" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B9" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1111</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="16"/>
+      <c r="B26" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:H29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F3" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B9" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1111</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="16"/>
+      <c r="B27" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Doc/Web端网页整理.xlsx
+++ b/Doc/Web端网页整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="1590" windowWidth="14745" windowHeight="5685" activeTab="7"/>
+    <workbookView xWindow="615" yWindow="1590" windowWidth="14745" windowHeight="5685" tabRatio="858" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="第一阶段" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="经销商管理" sheetId="7" r:id="rId6"/>
     <sheet name="品牌管理" sheetId="8" r:id="rId7"/>
     <sheet name="期号管理" sheetId="9" r:id="rId8"/>
+    <sheet name="报告下载记录" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="199">
   <si>
     <t>页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -755,6 +756,58 @@
   </si>
   <si>
     <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告下载记录-厂商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期号代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期号名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告下载记录-后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -972,11 +1025,11 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1347,7 +1400,7 @@
       </c>
     </row>
     <row r="3" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="23"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1371,7 +1424,7 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="23"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
@@ -1397,7 +1450,7 @@
       <c r="R4" s="7"/>
     </row>
     <row r="5" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="25" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1425,7 +1478,7 @@
       <c r="R5" s="7"/>
     </row>
     <row r="6" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="23"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1449,7 +1502,7 @@
       <c r="R6" s="7"/>
     </row>
     <row r="7" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="23"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="5" t="s">
         <v>2</v>
       </c>
@@ -1477,7 +1530,7 @@
       <c r="R7" s="7"/>
     </row>
     <row r="8" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="25" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -1507,7 +1560,7 @@
       <c r="R8" s="7"/>
     </row>
     <row r="9" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="23"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1535,7 +1588,7 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="23"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1563,7 +1616,7 @@
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="23"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1591,7 +1644,7 @@
       <c r="R11" s="7"/>
     </row>
     <row r="12" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="23"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1619,7 +1672,7 @@
       <c r="R12" s="7"/>
     </row>
     <row r="13" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="23"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1647,7 +1700,7 @@
       <c r="R13" s="7"/>
     </row>
     <row r="14" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="23"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="5" t="s">
         <v>25</v>
       </c>
@@ -2652,10 +2705,10 @@
         <v>44</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>125</v>
       </c>
       <c r="H11" s="1"/>
@@ -2848,7 +2901,7 @@
       <c r="B41" s="12"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="24" t="s">
         <v>119</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -2885,7 +2938,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="24" t="s">
         <v>131</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -3537,7 +3590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -3773,4 +3826,269 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:M37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G3" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="E7" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="H7" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B9" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B26" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="E26" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="H26" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="K26" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B28" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Doc/Web端网页整理.xlsx
+++ b/Doc/Web端网页整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="1590" windowWidth="14745" windowHeight="5685" tabRatio="858" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="615" yWindow="1590" windowWidth="14745" windowHeight="5685" tabRatio="858" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="第一阶段" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="品牌管理" sheetId="8" r:id="rId7"/>
     <sheet name="期号管理" sheetId="9" r:id="rId8"/>
     <sheet name="报告下载记录" sheetId="10" r:id="rId9"/>
+    <sheet name="申诉管理_厂商" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="231">
   <si>
     <t>页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -519,15 +520,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>经销商设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>下级区域添加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经销商设置</t>
+    <t>集团代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用与否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击集团代码跳转到集团详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加集团跳转到集团详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -535,7 +584,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加</t>
+    <t>经销商名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加经销商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加经销商跳转到经销商详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -547,43 +604,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下级区域添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集团代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集团名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用与否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击集团代码跳转到集团详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集团详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集团代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加集团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击添加集团跳转到集团详情</t>
+    <t>经销商简称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -595,54 +628,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加经销商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击添加经销商跳转到经销商详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经销商代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经销商名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>经销商简称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>省份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>经销商详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经销商代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经销商名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经销商简称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>集团</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -808,6 +801,142 @@
   </si>
   <si>
     <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域导入解析弹出框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将要导入品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框,不能编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考报告下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记申诉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体系号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申诉理由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申诉人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申诉时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申诉详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申诉理由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同意(radio）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同意(radio）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(选择文件和上传文件合并为一个按钮也可以)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈内容和反馈意见不能修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,7 +1042,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -950,6 +1079,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -979,7 +1114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1030,6 +1165,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1796,6 +1937,360 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:L37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I7" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B9" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B10" s="19"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>214</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E24" t="s">
+        <v>218</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="16"/>
+      <c r="B25" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="16"/>
+      <c r="B26" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B27" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" t="s">
+        <v>222</v>
+      </c>
+      <c r="D27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B28" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C29" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="E30" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B31" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B32" s="19"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M41"/>
@@ -2608,37 +3103,36 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:M56"/>
+  <dimension ref="A3:L75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A27" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="J3" s="11" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I3" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="J3" s="20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B6" s="12" t="s">
         <v>82</v>
       </c>
@@ -2648,24 +3142,21 @@
       <c r="E6" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="12" t="s">
+      <c r="G6" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" t="s">
         <v>118</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="I6" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
         <v>118</v>
       </c>
-      <c r="M6" s="20"/>
-    </row>
-    <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="L6" s="20"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B10" s="21" t="s">
         <v>96</v>
       </c>
@@ -2679,22 +3170,19 @@
         <v>99</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H10" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="H10" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="I10" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" s="19" t="s">
         <v>44</v>
       </c>
@@ -2706,16 +3194,13 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="G11" s="23" t="s">
         <v>125</v>
       </c>
+      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2724,9 +3209,8 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>117</v>
       </c>
@@ -2737,9 +3221,8 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2748,9 +3231,8 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2759,9 +3241,8 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2770,9 +3251,8 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2781,9 +3261,8 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2792,9 +3271,8 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2803,9 +3281,8 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2814,9 +3291,8 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>114</v>
       </c>
@@ -2824,7 +3300,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="15" t="s">
         <v>59</v>
       </c>
@@ -2835,7 +3311,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
         <v>59</v>
       </c>
@@ -2846,7 +3322,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="16"/>
       <c r="B31" s="12" t="s">
         <v>103</v>
@@ -2855,7 +3331,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="12" t="s">
         <v>115</v>
       </c>
@@ -2865,7 +3341,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
@@ -2921,42 +3397,160 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B51" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C51" t="s">
         <v>54</v>
       </c>
       <c r="D51" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B54" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B54" s="24" t="s">
+      <c r="D54" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G62" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B63" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B65" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B66" s="19"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2984,10 +3578,10 @@
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F3" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -3009,13 +3603,13 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B10" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>135</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>137</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>40</v>
@@ -3046,7 +3640,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3104,7 +3698,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>105</v>
@@ -3115,7 +3709,7 @@
         <v>59</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C25" t="s">
         <v>54</v>
@@ -3126,7 +3720,7 @@
         <v>59</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C26" t="s">
         <v>43</v>
@@ -3152,7 +3746,7 @@
   <dimension ref="A3:J31"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3166,10 +3760,10 @@
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F3" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -3185,14 +3779,14 @@
         <v>32</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>54</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H6" s="20" t="s">
         <v>54</v>
@@ -3201,25 +3795,25 @@
     </row>
     <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B10" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="E10" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>40</v>
@@ -3258,7 +3852,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3348,7 +3942,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>105</v>
@@ -3359,7 +3953,7 @@
         <v>59</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s">
         <v>54</v>
@@ -3370,7 +3964,7 @@
         <v>59</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C26" t="s">
         <v>43</v>
@@ -3381,17 +3975,17 @@
         <v>59</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B28" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B29" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
@@ -3399,10 +3993,10 @@
         <v>59</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
@@ -3439,10 +4033,10 @@
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F3" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -3452,13 +4046,13 @@
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B9" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>40</v>
@@ -3487,7 +4081,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3545,7 +4139,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>105</v>
@@ -3556,7 +4150,7 @@
         <v>59</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C24" t="s">
         <v>54</v>
@@ -3576,7 +4170,7 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3605,10 +4199,10 @@
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F3" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -3624,7 +4218,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" t="s">
         <v>32</v>
@@ -3632,19 +4226,19 @@
     </row>
     <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B9" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="E9" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>40</v>
@@ -3677,7 +4271,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3751,7 +4345,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>105</v>
@@ -3762,7 +4356,7 @@
         <v>59</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C24" t="s">
         <v>54</v>
@@ -3773,7 +4367,7 @@
         <v>59</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C25" t="s">
         <v>43</v>
@@ -3784,7 +4378,7 @@
         <v>59</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
@@ -3793,10 +4387,10 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="16"/>
       <c r="B27" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -3804,10 +4398,10 @@
         <v>59</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -3815,7 +4409,7 @@
         <v>59</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
@@ -3832,7 +4426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -3847,50 +4441,50 @@
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="G3" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C7" s="1"/>
       <c r="E7" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F7" s="1"/>
       <c r="H7" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>192</v>
-      </c>
       <c r="G9" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -3969,47 +4563,47 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B26" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C26" s="1"/>
       <c r="E26" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F26" s="1"/>
       <c r="H26" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I26" s="1"/>
       <c r="K26" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B28" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="F28" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>192</v>
-      </c>
       <c r="G28" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">

--- a/Doc/Web端网页整理.xlsx
+++ b/Doc/Web端网页整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="1590" windowWidth="14745" windowHeight="5685" tabRatio="858" activeTab="9"/>
+    <workbookView xWindow="615" yWindow="1590" windowWidth="14745" windowHeight="5685" tabRatio="858" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="第一阶段" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <sheet name="期号管理" sheetId="9" r:id="rId8"/>
     <sheet name="报告下载记录" sheetId="10" r:id="rId9"/>
     <sheet name="申诉管理_厂商" sheetId="12" r:id="rId10"/>
+    <sheet name="标签管理" sheetId="14" r:id="rId11"/>
+    <sheet name="体系管理" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="284">
   <si>
     <t>页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -937,6 +939,218 @@
   </si>
   <si>
     <t>反馈内容和反馈意见不能修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用与否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用与否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加体系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体系代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查标准说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍照点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失分说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体系详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体系代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍照点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍照点详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍照点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查标准详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失分说明详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失分说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失分说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -944,7 +1158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1041,6 +1255,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1114,7 +1336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1162,15 +1384,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1541,7 +1771,7 @@
       </c>
     </row>
     <row r="3" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="25"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1565,7 +1795,7 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="25"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
@@ -1591,7 +1821,7 @@
       <c r="R4" s="7"/>
     </row>
     <row r="5" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="31" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1619,7 +1849,7 @@
       <c r="R5" s="7"/>
     </row>
     <row r="6" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="25"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1643,7 +1873,7 @@
       <c r="R6" s="7"/>
     </row>
     <row r="7" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="25"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="5" t="s">
         <v>2</v>
       </c>
@@ -1671,7 +1901,7 @@
       <c r="R7" s="7"/>
     </row>
     <row r="8" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -1701,7 +1931,7 @@
       <c r="R8" s="7"/>
     </row>
     <row r="9" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="25"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1729,7 +1959,7 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="25"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1757,7 +1987,7 @@
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="25"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1785,7 +2015,7 @@
       <c r="R11" s="7"/>
     </row>
     <row r="12" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="25"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1813,7 +2043,7 @@
       <c r="R12" s="7"/>
     </row>
     <row r="13" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="25"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1841,7 +2071,7 @@
       <c r="R13" s="7"/>
     </row>
     <row r="14" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="25"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="5" t="s">
         <v>25</v>
       </c>
@@ -1941,8 +2171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2171,26 +2401,26 @@
       <c r="B25" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B27" s="12" t="s">
@@ -2209,26 +2439,26 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="G30" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B31" s="21" t="s">
@@ -2285,6 +2515,760 @@
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:I28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="19"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>238</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" t="s">
+        <v>240</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="16"/>
+      <c r="B25" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="16"/>
+      <c r="B26" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:N73"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="10" max="10" width="11.875" customWidth="1"/>
+    <col min="11" max="11" width="9.75" customWidth="1"/>
+    <col min="12" max="12" width="9.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="I4" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B9" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B10" s="19"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>264</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A25" s="16"/>
+      <c r="B25" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A26" s="16"/>
+      <c r="B26" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B27" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B28" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B29" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B30" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B31" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B32" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B37" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B51" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B54" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B65" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C65" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B68" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2647,7 +3631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:O86"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
@@ -3105,8 +4089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView showGridLines="0" topLeftCell="A38" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4426,8 +5410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4440,9 +5424,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="G3" s="20" t="s">
-        <v>160</v>
-      </c>
+      <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
     </row>

--- a/Doc/Web端网页整理.xlsx
+++ b/Doc/Web端网页整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="1590" windowWidth="14745" windowHeight="5685" tabRatio="858" activeTab="11"/>
+    <workbookView xWindow="615" yWindow="1590" windowWidth="14745" windowHeight="5685" tabRatio="858" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="第一阶段" sheetId="1" r:id="rId1"/>
@@ -17,15 +17,18 @@
     <sheet name="期号管理" sheetId="9" r:id="rId8"/>
     <sheet name="报告下载记录" sheetId="10" r:id="rId9"/>
     <sheet name="申诉管理_厂商" sheetId="12" r:id="rId10"/>
-    <sheet name="标签管理" sheetId="14" r:id="rId11"/>
+    <sheet name="基础设置" sheetId="14" r:id="rId11"/>
     <sheet name="体系管理" sheetId="15" r:id="rId12"/>
+    <sheet name="经销商卷别设置" sheetId="16" r:id="rId13"/>
+    <sheet name="进店信息管理 " sheetId="17" r:id="rId14"/>
+    <sheet name="经销商得分" sheetId="18" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="360">
   <si>
     <t>页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1022,7 +1025,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加体系</t>
+    <t>检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查标准说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失分说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体系详细</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1034,14 +1065,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>满分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最低分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1050,87 +1073,353 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍照点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍照点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查标准详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失分说明详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失分说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失分说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准照片详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入卷别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷别详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行组长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进店详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行组长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间选择控件（可以选择到时间））</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框（代码或者名称)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查标准说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以进行添加和删除</t>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查标准说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签管理</t>
+  </si>
+  <si>
+    <t>输入9999为不涉及</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩略照片1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩略照片2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失分说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击编辑弹出照片编辑页面，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失分描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">添加失分描述 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检查标准说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拍照点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检查标准</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>失分说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体系详细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体系代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拍照点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拍照点详细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拍照点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查标准详细</t>
+    <t>失分描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准照片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1138,19 +1427,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检查标准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失分说明详细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失分说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失分说明</t>
+    <t>失分描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击编辑弹出编辑页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">确定 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多选下拉框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1158,7 +1463,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1263,6 +1568,71 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1308,7 +1678,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1331,12 +1701,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1394,13 +1801,71 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1709,7 +2174,7 @@
   <dimension ref="C2:BT55"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1771,7 +2236,7 @@
       </c>
     </row>
     <row r="3" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="31"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1795,7 +2260,7 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="31"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
@@ -1821,7 +2286,7 @@
       <c r="R4" s="7"/>
     </row>
     <row r="5" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="47" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1849,7 +2314,7 @@
       <c r="R5" s="7"/>
     </row>
     <row r="6" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="31"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1873,7 +2338,7 @@
       <c r="R6" s="7"/>
     </row>
     <row r="7" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="31"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="5" t="s">
         <v>2</v>
       </c>
@@ -1901,7 +2366,7 @@
       <c r="R7" s="7"/>
     </row>
     <row r="8" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="47" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -1931,7 +2396,7 @@
       <c r="R8" s="7"/>
     </row>
     <row r="9" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="31"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1959,7 +2424,7 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="31"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1987,7 +2452,7 @@
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="31"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="5" t="s">
         <v>8</v>
       </c>
@@ -2015,7 +2480,7 @@
       <c r="R11" s="7"/>
     </row>
     <row r="12" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="31"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
@@ -2043,7 +2508,7 @@
       <c r="R12" s="7"/>
     </row>
     <row r="13" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="31"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="5" t="s">
         <v>21</v>
       </c>
@@ -2071,7 +2536,7 @@
       <c r="R13" s="7"/>
     </row>
     <row r="14" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="31"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="5" t="s">
         <v>25</v>
       </c>
@@ -2401,26 +2866,26 @@
       <c r="B25" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B27" s="12" t="s">
@@ -2523,10 +2988,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I28"/>
+  <dimension ref="A2:I28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2538,6 +3003,11 @@
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="40" t="s">
+        <v>329</v>
+      </c>
+    </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G3" s="20"/>
     </row>
@@ -2566,25 +3036,25 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="3" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2750,95 +3220,97 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N73"/>
+  <dimension ref="A3:M72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J79" sqref="J79"/>
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
-    <col min="10" max="10" width="11.875" customWidth="1"/>
-    <col min="11" max="11" width="9.75" customWidth="1"/>
-    <col min="12" max="12" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="8.125" customWidth="1"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
+    <col min="5" max="5" width="6.375" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B4" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="I4" s="11" t="s">
+      <c r="K4" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="L4" s="34" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B9" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="21" t="s">
+      <c r="D9" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="L9" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="H9" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="N9" s="24" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B10" s="19"/>
+      <c r="M9" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B10" s="19" t="s">
+        <v>285</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2846,13 +3318,948 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="J10" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="K10" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="L10" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B11" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>258</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="16"/>
+      <c r="B25" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B26" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="16"/>
+      <c r="B27" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B28" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B29" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B30" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B31" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B36" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B39" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="31" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B50" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B53" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="31" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B64" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="C64" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B67" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="31" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:J26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="D15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="8.625" customWidth="1"/>
+    <col min="10" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B9" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>293</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="16"/>
+      <c r="B25" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>296</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:H27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>300</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="16"/>
+      <c r="B25" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="D27" s="40"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:O63"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="11" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B6" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B9" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B10" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="J10" s="56" t="s">
+        <v>351</v>
+      </c>
+      <c r="K10" s="57" t="s">
+        <v>350</v>
+      </c>
+      <c r="L10" s="57" t="s">
+        <v>352</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2867,7 +4274,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2882,7 +4289,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2897,7 +4304,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2912,7 +4319,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2927,7 +4334,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2987,288 +4394,363 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E21" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>264</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>105</v>
+      <c r="B22" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="C22" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B23" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C23" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
       <c r="B24" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
+        <v>319</v>
+      </c>
+      <c r="C24" t="s">
+        <v>318</v>
+      </c>
+      <c r="K24" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="16"/>
       <c r="B25" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
+        <v>347</v>
+      </c>
+      <c r="C25" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="16"/>
       <c r="B26" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
+        <v>320</v>
+      </c>
+      <c r="C26" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B27" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>123</v>
+        <v>325</v>
+      </c>
+      <c r="C27" t="s">
+        <v>326</v>
+      </c>
+      <c r="D27" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B28" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B29" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B30" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>54</v>
+        <v>327</v>
+      </c>
+      <c r="C28" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B31" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B32" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B37" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="C37" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="22" t="s">
+      <c r="A31" t="s">
+        <v>323</v>
+      </c>
+      <c r="E31" s="22" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B40" s="1" t="s">
+      <c r="I31" s="22" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B34" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="33" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B51" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="C51" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B54" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="33" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D34" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="55" t="s">
+        <v>322</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>335</v>
+      </c>
+      <c r="F35" t="s">
+        <v>355</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="J35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O42" s="22" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+    </row>
+    <row r="45" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="K45" s="43"/>
+      <c r="L45" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="M45" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="N45" s="52" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>336</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="J46" t="s">
+        <v>337</v>
+      </c>
+      <c r="K46" s="43"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="53"/>
+    </row>
+    <row r="47" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="2"/>
+      <c r="C47" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>336</v>
+      </c>
+      <c r="E47" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="J47" t="s">
+        <v>316</v>
+      </c>
+      <c r="K47" s="43"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="54"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B48" s="2"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="41"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B49" s="2"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B50" s="2"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="E54" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="O54" s="22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J55" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="K55" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B56" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C57" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="D57" s="41" t="s">
+        <v>336</v>
+      </c>
+      <c r="E57" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C58" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>336</v>
+      </c>
+      <c r="E58" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="F58" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B65" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="C65" t="s">
-        <v>54</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B68" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="33" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-    </row>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="M60" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="N60" s="52" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="J61" t="s">
+        <v>337</v>
+      </c>
+      <c r="K61" s="43"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="50"/>
+      <c r="N61" s="53"/>
+    </row>
+    <row r="62" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J62" t="s">
+        <v>316</v>
+      </c>
+      <c r="K62" s="43"/>
+      <c r="L62" s="51"/>
+      <c r="M62" s="51"/>
+      <c r="N62" s="54"/>
+    </row>
+    <row r="63" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="L60:L62"/>
+    <mergeCell ref="M60:M62"/>
+    <mergeCell ref="N60:N62"/>
+    <mergeCell ref="L45:L47"/>
+    <mergeCell ref="M45:M47"/>
+    <mergeCell ref="N45:N47"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Doc/Web端网页整理.xlsx
+++ b/Doc/Web端网页整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="1590" windowWidth="14745" windowHeight="5685" tabRatio="858" firstSheet="6" activeTab="14"/>
+    <workbookView xWindow="615" yWindow="1590" windowWidth="14745" windowHeight="5685" tabRatio="858" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="第一阶段" sheetId="1" r:id="rId1"/>
@@ -16,19 +16,20 @@
     <sheet name="品牌管理" sheetId="8" r:id="rId7"/>
     <sheet name="期号管理" sheetId="9" r:id="rId8"/>
     <sheet name="报告下载记录" sheetId="10" r:id="rId9"/>
-    <sheet name="申诉管理_厂商" sheetId="12" r:id="rId10"/>
-    <sheet name="基础设置" sheetId="14" r:id="rId11"/>
-    <sheet name="体系管理" sheetId="15" r:id="rId12"/>
-    <sheet name="经销商卷别设置" sheetId="16" r:id="rId13"/>
-    <sheet name="进店信息管理 " sheetId="17" r:id="rId14"/>
-    <sheet name="经销商得分" sheetId="18" r:id="rId15"/>
+    <sheet name="申诉设置" sheetId="19" r:id="rId10"/>
+    <sheet name="申诉管理_厂商" sheetId="12" r:id="rId11"/>
+    <sheet name="标签管理" sheetId="14" r:id="rId12"/>
+    <sheet name="体系管理" sheetId="15" r:id="rId13"/>
+    <sheet name="经销商卷别设置" sheetId="16" r:id="rId14"/>
+    <sheet name="进店信息管理 " sheetId="17" r:id="rId15"/>
+    <sheet name="经销商得分" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="374">
   <si>
     <t>页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1456,6 +1457,61 @@
   </si>
   <si>
     <t>多选下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期号名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申诉开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申诉结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申诉模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成申诉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入申诉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申诉设置详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期号代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期号名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+  </si>
+  <si>
+    <t>申诉开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">日期控件 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申诉模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1743,7 +1799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1833,6 +1889,18 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1857,14 +1925,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2236,7 +2298,7 @@
       </c>
     </row>
     <row r="3" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="47"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2260,7 +2322,7 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="47"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
@@ -2286,7 +2348,7 @@
       <c r="R4" s="7"/>
     </row>
     <row r="5" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="51" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -2314,7 +2376,7 @@
       <c r="R5" s="7"/>
     </row>
     <row r="6" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="47"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
@@ -2338,7 +2400,7 @@
       <c r="R6" s="7"/>
     </row>
     <row r="7" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="47"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="5" t="s">
         <v>2</v>
       </c>
@@ -2366,7 +2428,7 @@
       <c r="R7" s="7"/>
     </row>
     <row r="8" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="51" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -2396,7 +2458,7 @@
       <c r="R8" s="7"/>
     </row>
     <row r="9" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="47"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
@@ -2424,7 +2486,7 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="47"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
@@ -2452,7 +2514,7 @@
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="47"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="5" t="s">
         <v>8</v>
       </c>
@@ -2480,7 +2542,7 @@
       <c r="R11" s="7"/>
     </row>
     <row r="12" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="47"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
@@ -2508,7 +2570,7 @@
       <c r="R12" s="7"/>
     </row>
     <row r="13" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="47"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="5" t="s">
         <v>21</v>
       </c>
@@ -2536,7 +2598,7 @@
       <c r="R13" s="7"/>
     </row>
     <row r="14" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="47"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="5" t="s">
         <v>25</v>
       </c>
@@ -2634,10 +2696,239 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:H28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="19"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>366</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="16"/>
+      <c r="B25" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>369</v>
+      </c>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="16"/>
+      <c r="B26" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>373</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2866,26 +3157,26 @@
       <c r="B25" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B27" s="12" t="s">
@@ -2986,7 +3277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I28"/>
   <sheetViews>
@@ -3218,12 +3509,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M72"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3742,7 +4033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J26"/>
   <sheetViews>
@@ -3931,7 +4222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H27"/>
   <sheetViews>
@@ -4137,12 +4428,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4247,13 +4538,13 @@
       <c r="I10" s="46" t="s">
         <v>344</v>
       </c>
-      <c r="J10" s="56" t="s">
+      <c r="J10" s="49" t="s">
         <v>351</v>
       </c>
-      <c r="K10" s="57" t="s">
+      <c r="K10" s="50" t="s">
         <v>350</v>
       </c>
-      <c r="L10" s="57" t="s">
+      <c r="L10" s="50" t="s">
         <v>352</v>
       </c>
       <c r="M10" s="1"/>
@@ -4489,7 +4780,7 @@
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="48" t="s">
         <v>322</v>
       </c>
       <c r="E35" s="44" t="s">
@@ -4557,13 +4848,13 @@
         <v>338</v>
       </c>
       <c r="K45" s="43"/>
-      <c r="L45" s="49" t="s">
+      <c r="L45" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="M45" s="49" t="s">
+      <c r="M45" s="53" t="s">
         <v>333</v>
       </c>
-      <c r="N45" s="52" t="s">
+      <c r="N45" s="56" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4584,9 +4875,9 @@
         <v>337</v>
       </c>
       <c r="K46" s="43"/>
-      <c r="L46" s="50"/>
-      <c r="M46" s="50"/>
-      <c r="N46" s="53"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="57"/>
     </row>
     <row r="47" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="2"/>
@@ -4603,9 +4894,9 @@
         <v>316</v>
       </c>
       <c r="K47" s="43"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="51"/>
-      <c r="N47" s="54"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="58"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B48" s="2"/>
@@ -4708,13 +4999,13 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="K60" s="43"/>
-      <c r="L60" s="49" t="s">
+      <c r="L60" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="M60" s="49" t="s">
+      <c r="M60" s="53" t="s">
         <v>333</v>
       </c>
-      <c r="N60" s="52" t="s">
+      <c r="N60" s="56" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4728,18 +5019,18 @@
         <v>337</v>
       </c>
       <c r="K61" s="43"/>
-      <c r="L61" s="50"/>
-      <c r="M61" s="50"/>
-      <c r="N61" s="53"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="57"/>
     </row>
     <row r="62" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J62" t="s">
         <v>316</v>
       </c>
       <c r="K62" s="43"/>
-      <c r="L62" s="51"/>
-      <c r="M62" s="51"/>
-      <c r="N62" s="54"/>
+      <c r="L62" s="55"/>
+      <c r="M62" s="55"/>
+      <c r="N62" s="58"/>
     </row>
     <row r="63" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
@@ -6651,7 +6942,7 @@
   <dimension ref="A3:H29"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Doc/Web端网页整理.xlsx
+++ b/Doc/Web端网页整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="1590" windowWidth="14745" windowHeight="5685" tabRatio="858" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="615" yWindow="1590" windowWidth="14745" windowHeight="5685" tabRatio="858" firstSheet="7" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="第一阶段" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,16 @@
     <sheet name="体系管理" sheetId="15" r:id="rId13"/>
     <sheet name="经销商卷别设置" sheetId="16" r:id="rId14"/>
     <sheet name="进店信息管理 " sheetId="17" r:id="rId15"/>
-    <sheet name="经销商得分" sheetId="18" r:id="rId16"/>
+    <sheet name="经销商得分" sheetId="21" r:id="rId16"/>
+    <sheet name="复审管理" sheetId="18" r:id="rId17"/>
+    <sheet name="调研进度管理" sheetId="22" r:id="rId18"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="394">
   <si>
     <t>页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1246,272 +1248,352 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查标准说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以进行添加和删除</t>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查标准说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签管理</t>
+  </si>
+  <si>
+    <t>输入9999为不涉及</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩略照片1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩略照片2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击编辑弹出照片编辑页面，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失分描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">添加失分描述 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击编辑弹出编辑页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">确定 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多选下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期号名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申诉开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申诉结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申诉模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成申诉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入申诉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申诉设置详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期号代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期号名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+  </si>
+  <si>
+    <t>申诉开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">日期控件 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申诉模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框，输入序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多选框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>导出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>照片1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>照片2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框（代码或者名称)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查标准说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准照片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以进行添加和删除</t>
-  </si>
-  <si>
-    <t>显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查标准说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查标准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准照片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签管理</t>
-  </si>
-  <si>
-    <t>输入9999为不涉及</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩略照片1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩略照片2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失分说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击编辑弹出照片编辑页面，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看照片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看照片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失分描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">添加失分描述 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查标准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失分描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准照片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查标准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失分描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击编辑弹出编辑页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">确定 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多选下拉框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期号名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申诉开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申诉结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申诉模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成申诉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入申诉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申诉设置详细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期号代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期号名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示</t>
-  </si>
-  <si>
-    <t>申诉开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">日期控件 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申诉模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉框</t>
+    <t>提交复审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失分照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交复审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审类型代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框，必选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框，必选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框，非必选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审进度记录（弹出框)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1690,7 +1772,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1730,6 +1812,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1799,7 +1887,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1901,6 +1989,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1925,8 +2016,17 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2236,7 +2336,7 @@
   <dimension ref="C2:BT55"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2298,7 +2398,7 @@
       </c>
     </row>
     <row r="3" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="51"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2322,7 +2422,7 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
@@ -2348,7 +2448,7 @@
       <c r="R4" s="7"/>
     </row>
     <row r="5" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="52" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -2376,7 +2476,7 @@
       <c r="R5" s="7"/>
     </row>
     <row r="6" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="51"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
@@ -2400,7 +2500,7 @@
       <c r="R6" s="7"/>
     </row>
     <row r="7" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="51"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="5" t="s">
         <v>2</v>
       </c>
@@ -2428,7 +2528,7 @@
       <c r="R7" s="7"/>
     </row>
     <row r="8" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="52" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -2458,7 +2558,7 @@
       <c r="R8" s="7"/>
     </row>
     <row r="9" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="51"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
@@ -2486,7 +2586,7 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="51"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
@@ -2514,7 +2614,7 @@
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="51"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="5" t="s">
         <v>8</v>
       </c>
@@ -2542,7 +2642,7 @@
       <c r="R11" s="7"/>
     </row>
     <row r="12" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="51"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
@@ -2570,7 +2670,7 @@
       <c r="R12" s="7"/>
     </row>
     <row r="13" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="51"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="5" t="s">
         <v>21</v>
       </c>
@@ -2598,7 +2698,7 @@
       <c r="R13" s="7"/>
     </row>
     <row r="14" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="51"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="5" t="s">
         <v>25</v>
       </c>
@@ -2698,8 +2798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2745,22 +2845,22 @@
         <v>167</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -2855,7 +2955,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>105</v>
@@ -2864,7 +2964,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="12" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="C24" t="s">
         <v>63</v>
@@ -2877,10 +2977,10 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="16"/>
       <c r="B25" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="C25" s="59" t="s">
-        <v>369</v>
+        <v>351</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>352</v>
       </c>
       <c r="D25" s="47"/>
       <c r="E25" s="47"/>
@@ -2890,10 +2990,10 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="12" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
@@ -2902,18 +3002,18 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B27" s="12" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B28" s="12" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3157,26 +3257,26 @@
       <c r="B25" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B27" s="12" t="s">
@@ -3296,7 +3396,7 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="40" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -3580,7 +3680,7 @@
         <v>254</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>159</v>
@@ -3610,7 +3710,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="41" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K10" s="42" t="s">
         <v>256</v>
@@ -4037,8 +4137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView showGridLines="0" topLeftCell="D9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4432,8 +4532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4445,12 +4545,13 @@
     <col min="7" max="7" width="12.625" customWidth="1"/>
     <col min="8" max="8" width="8.875" customWidth="1"/>
     <col min="9" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B4" s="12" t="s">
         <v>82</v>
       </c>
@@ -4473,18 +4574,18 @@
         <v>248</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B6" s="12" t="s">
-        <v>305</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B9" s="37" t="s">
         <v>78</v>
       </c>
@@ -4492,40 +4593,37 @@
         <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>345</v>
+        <v>278</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>309</v>
+        <v>206</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>308</v>
+        <v>159</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>343</v>
+        <v>256</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>348</v>
+        <v>277</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>349</v>
+        <v>61</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B10" s="38" t="s">
         <v>299</v>
       </c>
@@ -4535,22 +4633,19 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="46" t="s">
-        <v>344</v>
-      </c>
-      <c r="J10" s="49" t="s">
-        <v>351</v>
+      <c r="I10" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>277</v>
       </c>
       <c r="K10" s="50" t="s">
-        <v>350</v>
-      </c>
-      <c r="L10" s="50" t="s">
-        <v>352</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4563,9 +4658,8 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4578,9 +4672,8 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4593,9 +4686,8 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4608,9 +4700,8 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -4623,9 +4714,8 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -4638,9 +4728,8 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -4653,9 +4742,8 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -4668,9 +4756,8 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -4683,84 +4770,83 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E21" s="22" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B22" s="12" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C22" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B23" s="12" t="s">
         <v>278</v>
       </c>
       <c r="C23" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B24" s="12" t="s">
-        <v>319</v>
+        <v>206</v>
       </c>
       <c r="C24" t="s">
-        <v>318</v>
+        <v>63</v>
       </c>
       <c r="K24" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B25" s="12" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C25" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B26" s="12" t="s">
-        <v>320</v>
+        <v>255</v>
       </c>
       <c r="C26" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B27" s="12" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
         <v>326</v>
       </c>
-      <c r="D27" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B28" s="12" t="s">
-        <v>327</v>
+        <v>159</v>
       </c>
       <c r="C28" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>323</v>
+        <v>256</v>
       </c>
       <c r="E31" s="22" t="s">
         <v>105</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
@@ -4771,26 +4857,26 @@
         <v>256</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="48" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F35" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="J35" t="s">
         <v>32</v>
@@ -4822,12 +4908,12 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="O42" s="22" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
@@ -4842,20 +4928,20 @@
         <v>264</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="K45" s="43"/>
-      <c r="L45" s="53" t="s">
-        <v>332</v>
-      </c>
-      <c r="M45" s="53" t="s">
-        <v>333</v>
-      </c>
-      <c r="N45" s="56" t="s">
-        <v>315</v>
+      <c r="L45" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="M45" s="54" t="s">
+        <v>328</v>
+      </c>
+      <c r="N45" s="57" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4863,40 +4949,40 @@
         <v>1</v>
       </c>
       <c r="C46" s="45" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D46" s="41" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E46" s="41" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="J46" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="K46" s="43"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="54"/>
-      <c r="N46" s="57"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="58"/>
     </row>
     <row r="47" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="2"/>
       <c r="C47" s="38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D47" s="41" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E47" s="41" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="J47" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K47" s="43"/>
-      <c r="L47" s="55"/>
-      <c r="M47" s="55"/>
-      <c r="N47" s="58"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="59"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B48" s="2"/>
@@ -4918,15 +5004,15 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E54" s="22" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="O54" s="22" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
@@ -4934,7 +5020,7 @@
         <v>257</v>
       </c>
       <c r="K55" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
@@ -4945,10 +5031,10 @@
         <v>257</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>85</v>
@@ -4958,13 +5044,13 @@
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B57" s="1"/>
       <c r="C57" s="45" t="s">
-        <v>334</v>
+        <v>257</v>
       </c>
       <c r="D57" s="41" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E57" s="41" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F57" s="31" t="s">
         <v>85</v>
@@ -4973,13 +5059,13 @@
     <row r="58" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="1"/>
       <c r="C58" s="38" t="s">
-        <v>334</v>
+        <v>257</v>
       </c>
       <c r="D58" s="41" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E58" s="41" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F58" s="31" t="s">
         <v>85</v>
@@ -4999,14 +5085,14 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="K60" s="43"/>
-      <c r="L60" s="53" t="s">
-        <v>332</v>
-      </c>
-      <c r="M60" s="53" t="s">
-        <v>333</v>
-      </c>
-      <c r="N60" s="56" t="s">
-        <v>315</v>
+      <c r="L60" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="M60" s="54" t="s">
+        <v>328</v>
+      </c>
+      <c r="N60" s="57" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5016,32 +5102,884 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="J61" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="K61" s="43"/>
-      <c r="L61" s="54"/>
-      <c r="M61" s="54"/>
-      <c r="N61" s="57"/>
+      <c r="L61" s="55"/>
+      <c r="M61" s="55"/>
+      <c r="N61" s="58"/>
     </row>
     <row r="62" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J62" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K62" s="43"/>
-      <c r="L62" s="55"/>
-      <c r="M62" s="55"/>
-      <c r="N62" s="58"/>
+      <c r="L62" s="56"/>
+      <c r="M62" s="56"/>
+      <c r="N62" s="59"/>
     </row>
     <row r="63" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="L45:L47"/>
+    <mergeCell ref="M45:M47"/>
+    <mergeCell ref="N45:N47"/>
     <mergeCell ref="L60:L62"/>
     <mergeCell ref="M60:M62"/>
     <mergeCell ref="N60:N62"/>
-    <mergeCell ref="L45:L47"/>
-    <mergeCell ref="M45:M47"/>
-    <mergeCell ref="N45:N47"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:L67"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="10" width="8.875" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="I4" s="65" t="s">
+        <v>372</v>
+      </c>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B6" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" t="s">
+        <v>391</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="F6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B9" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B10" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="46" t="s">
+        <v>376</v>
+      </c>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="46" t="s">
+        <v>376</v>
+      </c>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="46" t="s">
+        <v>376</v>
+      </c>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="46" t="s">
+        <v>376</v>
+      </c>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>379</v>
+      </c>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B23" s="65" t="s">
+        <v>359</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>361</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>362</v>
+      </c>
+      <c r="F23" s="61"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B26" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C26" t="s">
+        <v>315</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="G26" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B27" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C27" t="s">
+        <v>316</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="G27" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B28" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C28" t="s">
+        <v>316</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="G28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B29" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C29" t="s">
+        <v>316</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="G29" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B30" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C30" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B31" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B32" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>321</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" t="s">
+        <v>322</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="K35" s="20"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="I38" s="62"/>
+      <c r="J38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="48" t="s">
+        <v>320</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="H39" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="I39" s="63"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="L39" s="41" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="H40" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="I40" s="63"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="L40" s="41" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="E48" s="20"/>
+    </row>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E23:F23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:L39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="10" width="8.875" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="I4" s="65"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B9" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B10" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="36" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>393</v>
+      </c>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+    </row>
+    <row r="22" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B24" s="37" t="s">
+        <v>386</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B25" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5053,7 +5991,7 @@
   <dimension ref="A4:M41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5405,7 +6343,7 @@
   <dimension ref="A4:O86"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Doc/Web端网页整理.xlsx
+++ b/Doc/Web端网页整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="1590" windowWidth="14745" windowHeight="5685" tabRatio="858" firstSheet="7" activeTab="17"/>
+    <workbookView xWindow="615" yWindow="1590" windowWidth="14745" windowHeight="5685" tabRatio="858" firstSheet="11" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="第一阶段" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,17 @@
     <sheet name="经销商得分" sheetId="21" r:id="rId16"/>
     <sheet name="复审管理" sheetId="18" r:id="rId17"/>
     <sheet name="调研进度管理" sheetId="22" r:id="rId18"/>
+    <sheet name="复审修改" sheetId="23" r:id="rId19"/>
+    <sheet name="复审仲裁" sheetId="24" r:id="rId20"/>
+    <sheet name="复审抽查(督导)" sheetId="25" r:id="rId21"/>
+    <sheet name="复审抽查(项目经理)" sheetId="26" r:id="rId22"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="410">
   <si>
     <t>页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1594,6 +1598,70 @@
   </si>
   <si>
     <t>复审进度记录（弹出框)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审修改完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同意复审与否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考经销商得分的编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仲裁结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仲裁原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分修改/检查标准/标准照片/失分描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仲裁完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽查完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仲裁理由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>督导抽查意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目经理抽查意见</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1992,6 +2060,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2016,16 +2093,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2398,7 +2466,7 @@
       </c>
     </row>
     <row r="3" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="52"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2422,7 +2490,7 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="52"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
@@ -2448,7 +2516,7 @@
       <c r="R4" s="7"/>
     </row>
     <row r="5" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="57" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -2476,7 +2544,7 @@
       <c r="R5" s="7"/>
     </row>
     <row r="6" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="52"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
@@ -2500,7 +2568,7 @@
       <c r="R6" s="7"/>
     </row>
     <row r="7" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="52"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="5" t="s">
         <v>2</v>
       </c>
@@ -2528,7 +2596,7 @@
       <c r="R7" s="7"/>
     </row>
     <row r="8" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="57" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -2558,7 +2626,7 @@
       <c r="R8" s="7"/>
     </row>
     <row r="9" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="52"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
@@ -2586,7 +2654,7 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="52"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
@@ -2614,7 +2682,7 @@
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="52"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="5" t="s">
         <v>8</v>
       </c>
@@ -2642,7 +2710,7 @@
       <c r="R11" s="7"/>
     </row>
     <row r="12" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="52"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
@@ -2670,7 +2738,7 @@
       <c r="R12" s="7"/>
     </row>
     <row r="13" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="52"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="5" t="s">
         <v>21</v>
       </c>
@@ -2698,7 +2766,7 @@
       <c r="R13" s="7"/>
     </row>
     <row r="14" spans="3:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="52"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="5" t="s">
         <v>25</v>
       </c>
@@ -3257,26 +3325,26 @@
       <c r="B25" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B27" s="12" t="s">
@@ -4533,7 +4601,7 @@
   <dimension ref="A3:O63"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4934,13 +5002,13 @@
         <v>331</v>
       </c>
       <c r="K45" s="43"/>
-      <c r="L45" s="54" t="s">
+      <c r="L45" s="59" t="s">
         <v>327</v>
       </c>
-      <c r="M45" s="54" t="s">
+      <c r="M45" s="59" t="s">
         <v>328</v>
       </c>
-      <c r="N45" s="57" t="s">
+      <c r="N45" s="62" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4961,9 +5029,9 @@
         <v>330</v>
       </c>
       <c r="K46" s="43"/>
-      <c r="L46" s="55"/>
-      <c r="M46" s="55"/>
-      <c r="N46" s="58"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="60"/>
+      <c r="N46" s="63"/>
     </row>
     <row r="47" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="2"/>
@@ -4980,9 +5048,9 @@
         <v>314</v>
       </c>
       <c r="K47" s="43"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="59"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="64"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B48" s="2"/>
@@ -5085,13 +5153,13 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="K60" s="43"/>
-      <c r="L60" s="54" t="s">
+      <c r="L60" s="59" t="s">
         <v>327</v>
       </c>
-      <c r="M60" s="54" t="s">
+      <c r="M60" s="59" t="s">
         <v>328</v>
       </c>
-      <c r="N60" s="57" t="s">
+      <c r="N60" s="62" t="s">
         <v>313</v>
       </c>
     </row>
@@ -5105,18 +5173,18 @@
         <v>330</v>
       </c>
       <c r="K61" s="43"/>
-      <c r="L61" s="55"/>
-      <c r="M61" s="55"/>
-      <c r="N61" s="58"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="63"/>
     </row>
     <row r="62" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J62" t="s">
         <v>314</v>
       </c>
       <c r="K62" s="43"/>
-      <c r="L62" s="56"/>
-      <c r="M62" s="56"/>
-      <c r="N62" s="59"/>
+      <c r="L62" s="61"/>
+      <c r="M62" s="61"/>
+      <c r="N62" s="64"/>
     </row>
     <row r="63" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
@@ -5139,7 +5207,7 @@
   <dimension ref="A3:L67"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5175,14 +5243,14 @@
       <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="56" t="s">
         <v>372</v>
       </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B6" s="12" t="s">
@@ -5374,80 +5442,80 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>379</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="56" t="s">
         <v>359</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="56" t="s">
         <v>360</v>
       </c>
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="56" t="s">
         <v>361</v>
       </c>
-      <c r="E23" s="61" t="s">
+      <c r="E23" s="65" t="s">
         <v>362</v>
       </c>
-      <c r="F23" s="61"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B26" s="12" t="s">
@@ -5581,7 +5649,7 @@
       <c r="H38" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="I38" s="62"/>
+      <c r="I38" s="53"/>
       <c r="J38" s="1" t="s">
         <v>171</v>
       </c>
@@ -5607,7 +5675,7 @@
       <c r="H39" s="41" t="s">
         <v>332</v>
       </c>
-      <c r="I39" s="63"/>
+      <c r="I39" s="54"/>
       <c r="J39" s="1"/>
       <c r="K39" s="45" t="s">
         <v>257</v>
@@ -5627,7 +5695,7 @@
       <c r="H40" s="41" t="s">
         <v>332</v>
       </c>
-      <c r="I40" s="63"/>
+      <c r="I40" s="54"/>
       <c r="J40" s="1"/>
       <c r="K40" s="38" t="s">
         <v>257</v>
@@ -5643,7 +5711,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="1"/>
       <c r="H41" s="41"/>
-      <c r="I41" s="63"/>
+      <c r="I41" s="54"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -5655,7 +5723,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="60"/>
+      <c r="I42" s="52"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -5667,7 +5735,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="60"/>
+      <c r="I43" s="52"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -5698,8 +5766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5735,12 +5803,12 @@
       <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" s="12" t="s">
@@ -5868,33 +5936,33 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>393</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
     </row>
     <row r="22" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5979,6 +6047,387 @@
     <row r="37" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="39" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:Q44"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.875" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="J4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B9" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B10" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="49" t="s">
+        <v>399</v>
+      </c>
+      <c r="O10" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="P10" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q10" s="50" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>404</v>
+      </c>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6335,6 +6784,1304 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:S44"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.875" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="J4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B9" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B10" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="49" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q10" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="R10" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="S10" s="50" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>404</v>
+      </c>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:T44"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.875" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="13" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>406</v>
+      </c>
+      <c r="J4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B9" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B10" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="49" t="s">
+        <v>399</v>
+      </c>
+      <c r="R10" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="S10" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="T10" s="50" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>404</v>
+      </c>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:U44"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.875" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>406</v>
+      </c>
+      <c r="J4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B9" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B10" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="49" t="s">
+        <v>399</v>
+      </c>
+      <c r="S10" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="T10" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="U10" s="50" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>404</v>
+      </c>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Doc/Web端网页整理.xlsx
+++ b/Doc/Web端网页整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="1590" windowWidth="14745" windowHeight="5685" tabRatio="858" firstSheet="11" activeTab="21"/>
+    <workbookView xWindow="615" yWindow="1590" windowWidth="14745" windowHeight="5685" tabRatio="858" firstSheet="12" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="第一阶段" sheetId="1" r:id="rId1"/>
@@ -24,18 +24,20 @@
     <sheet name="进店信息管理 " sheetId="17" r:id="rId15"/>
     <sheet name="经销商得分" sheetId="21" r:id="rId16"/>
     <sheet name="复审管理" sheetId="18" r:id="rId17"/>
-    <sheet name="调研进度管理" sheetId="22" r:id="rId18"/>
-    <sheet name="复审修改" sheetId="23" r:id="rId19"/>
-    <sheet name="复审仲裁" sheetId="24" r:id="rId20"/>
-    <sheet name="复审抽查(督导)" sheetId="25" r:id="rId21"/>
-    <sheet name="复审抽查(项目经理)" sheetId="26" r:id="rId22"/>
+    <sheet name="复审管理2.0" sheetId="27" r:id="rId18"/>
+    <sheet name="二审管理" sheetId="28" r:id="rId19"/>
+    <sheet name="调研进度管理" sheetId="22" r:id="rId20"/>
+    <sheet name="复审修改" sheetId="23" r:id="rId21"/>
+    <sheet name="复审仲裁" sheetId="24" r:id="rId22"/>
+    <sheet name="复审抽查(督导)" sheetId="25" r:id="rId23"/>
+    <sheet name="复审抽查(项目经理)" sheetId="26" r:id="rId24"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="459">
   <si>
     <t>页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1662,6 +1664,202 @@
   </si>
   <si>
     <t>项目经理抽查意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交初审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审建议得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审确认建议得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审确认结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审确认意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审确认时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二审完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二审完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二审建议得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二审结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二审意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二审确认时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二审</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1955,7 +2153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2096,6 +2294,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5764,10 +5972,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L39"/>
+  <dimension ref="A3:T75"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5777,14 +5985,16 @@
     <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="10" width="8.875" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="12" t="s">
         <v>82</v>
       </c>
@@ -5804,21 +6014,22 @@
         <v>32</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>248</v>
-      </c>
-      <c r="I4" s="56"/>
+        <v>425</v>
+      </c>
+      <c r="I4" s="55"/>
       <c r="J4" s="55"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B6" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+        <v>410</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B9" s="37" t="s">
         <v>78</v>
       </c>
@@ -5826,228 +6037,814 @@
         <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>380</v>
+        <v>436</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>381</v>
+        <v>437</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B10" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B10" s="49" t="s">
+        <v>426</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="J10" s="45" t="s">
         <v>299</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="36" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B15" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="L10" s="46" t="s">
+        <v>431</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="46"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B11" s="49" t="s">
+        <v>427</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="J11" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="L11" s="46" t="s">
+        <v>432</v>
+      </c>
+      <c r="M11" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="N11" s="46"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B12" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="J12" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="L12" s="46" t="s">
+        <v>433</v>
+      </c>
+      <c r="M12" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="N12" s="46"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B13" s="49" t="s">
+        <v>429</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>441</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="L13" s="46" t="s">
+        <v>434</v>
+      </c>
+      <c r="M13" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="N13" s="46"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B14" s="49" t="s">
+        <v>430</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="L14" s="46" t="s">
+        <v>435</v>
+      </c>
+      <c r="M14" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="N14" s="46"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B15" s="46"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B19" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B18" s="49" t="s">
+        <v>440</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1111</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1111</v>
+      </c>
+      <c r="J18" s="2">
+        <v>111</v>
+      </c>
+      <c r="K18" s="2">
+        <v>111</v>
+      </c>
+      <c r="L18" s="67" t="s">
+        <v>440</v>
+      </c>
+      <c r="M18" s="68">
+        <v>1111</v>
+      </c>
+      <c r="N18" s="68">
+        <v>111</v>
+      </c>
+      <c r="O18" s="68">
+        <v>111</v>
+      </c>
+      <c r="P18" s="67" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B19" s="49" t="s">
+        <v>440</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>393</v>
-      </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-    </row>
-    <row r="22" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B24" s="37" t="s">
-        <v>386</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B25" s="38" t="s">
-        <v>299</v>
-      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B20" s="49" t="s">
+        <v>440</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B21" s="49" t="s">
+        <v>440</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B22" s="49" t="s">
+        <v>440</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>379</v>
+      </c>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B31" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>360</v>
+      </c>
+      <c r="D31" s="56" t="s">
+        <v>361</v>
+      </c>
+      <c r="E31" s="65" t="s">
+        <v>362</v>
+      </c>
+      <c r="F31" s="65"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B34" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="G34" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B35" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C35" t="s">
+        <v>316</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="G35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B36" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" t="s">
+        <v>316</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="G36" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B37" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C37" t="s">
+        <v>316</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="G37" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B38" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C38" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B39" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B40" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>256</v>
+      </c>
+      <c r="E43" s="20"/>
+      <c r="F43" t="s">
+        <v>322</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="K43" s="20"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B46" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="I46" s="53"/>
+      <c r="J46" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="48" t="s">
+        <v>320</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="H47" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="I47" s="54"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="L47" s="41" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="H48" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="I48" s="54"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="L48" s="41" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="E56" s="20"/>
+    </row>
+    <row r="57" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E31:F31"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6056,10 +6853,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q44"/>
+  <dimension ref="A3:X75"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6069,18 +6866,20 @@
     <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="8.875" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.875" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" s="12" t="s">
         <v>82</v>
       </c>
@@ -6102,25 +6901,20 @@
       <c r="H4" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="I4" s="56" t="s">
-        <v>394</v>
-      </c>
+      <c r="I4" s="55"/>
       <c r="J4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="K4" s="55"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>390</v>
-      </c>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B9" s="37" t="s">
         <v>78</v>
       </c>
@@ -6128,150 +6922,110 @@
         <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>278</v>
+        <v>436</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>336</v>
+        <v>437</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B10" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B10" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="49" t="s">
-        <v>399</v>
-      </c>
-      <c r="O10" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="P10" s="50" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q10" s="50" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B15" s="1"/>
+      <c r="C10" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B11" s="49" t="s">
+        <v>427</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B12" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B13" s="49" t="s">
+        <v>429</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B14" s="49" t="s">
+        <v>430</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B15" s="46"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -6279,71 +7033,137 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B18" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1111</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1111</v>
+      </c>
+      <c r="J18" s="2">
+        <v>111</v>
+      </c>
+      <c r="K18" s="2">
+        <v>111</v>
+      </c>
+      <c r="L18" s="67" t="s">
+        <v>440</v>
+      </c>
+      <c r="M18" s="68">
+        <v>1111</v>
+      </c>
+      <c r="N18" s="68">
+        <v>111</v>
+      </c>
+      <c r="O18" s="68">
+        <v>111</v>
+      </c>
+      <c r="P18" s="67" t="s">
+        <v>440</v>
+      </c>
       <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B19" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B19" s="49" t="s">
+        <v>458</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -6353,82 +7173,541 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="67"/>
       <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>404</v>
-      </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="E25" s="20"/>
-    </row>
-    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B20" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B21" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B22" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>379</v>
+      </c>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B31" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>360</v>
+      </c>
+      <c r="D31" s="56" t="s">
+        <v>361</v>
+      </c>
+      <c r="E31" s="65" t="s">
+        <v>362</v>
+      </c>
+      <c r="F31" s="65"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B34" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="G34" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B35" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="G35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B36" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="G36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B37" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="G37" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B38" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B39" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B40" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>256</v>
+      </c>
+      <c r="E43" s="20"/>
+      <c r="F43" t="s">
+        <v>277</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="K43" s="20"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B46" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="I46" s="53"/>
+      <c r="J46" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="48" t="s">
+        <v>320</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="H47" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="I47" s="54"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="L47" s="41" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="H48" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="I48" s="54"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="L48" s="41" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="E56" s="20"/>
+    </row>
+    <row r="57" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E31:F31"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6789,6 +8068,679 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:L39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="10" width="8.875" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="I4" s="56"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B9" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B10" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="36" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>393</v>
+      </c>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+    </row>
+    <row r="22" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B24" s="37" t="s">
+        <v>386</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B25" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:Q44"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.875" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="J4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B9" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B10" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="49" t="s">
+        <v>399</v>
+      </c>
+      <c r="O10" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="P10" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q10" s="50" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>404</v>
+      </c>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -7202,7 +9154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T44"/>
   <sheetViews>
@@ -7634,12 +9586,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
